--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2141585.769094305</v>
+        <v>2159960.458560425</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,10 +668,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>251.2004257102379</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>313.5961800444755</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.827124477626</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>28.87913959011875</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>311.4936872159404</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>60.92600812502346</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.32208489366903</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>320.797539652425</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>367.5424755537142</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>25.99521924156241</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>9.790440613649972</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1427,7 +1427,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986229</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>104.3370797092996</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>67.28672596789991</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2002,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>122.6519788371607</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>103.6823614795048</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>129.2852058213984</v>
       </c>
       <c r="D22" t="n">
-        <v>14.97068936074899</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>209.4552226741785</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>169.7438101404364</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634827</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274081</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="30">
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>259.7862718917107</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238281</v>
+        <v>58.37802244540184</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0.8576818890151346</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>57.64843562452451</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>20.44435658528533</v>
       </c>
       <c r="T37" t="n">
-        <v>118.4898845064979</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,10 +3503,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274448</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985775</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365912</v>
+        <v>226.4594740106258</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>91.09720239620462</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722652</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274071</v>
@@ -3904,7 +3904,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465641</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>174.3062600431772</v>
+        <v>174.3062600431822</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274071</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002225</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>259.3061888821651</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.661061815299</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C2" t="n">
-        <v>1469.698544874887</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="D2" t="n">
-        <v>1111.432846268137</v>
+        <v>1167.480957434959</v>
       </c>
       <c r="E2" t="n">
-        <v>725.6445936698926</v>
+        <v>781.6927048367149</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>370.7068000471074</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.661061815299</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>249.9299350185089</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>249.9299350185089</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>249.9299350185089</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>249.9299350185089</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>249.9299350185089</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>249.9299350185089</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>536.6170209242687</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>470.722514162039</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>249.9299350185089</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1238.153685885794</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1238.153685885794</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>879.8879872790433</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>494.099734680799</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>83.11382989119147</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.892857925727</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.753525949915</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>632.8541509805061</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>632.8541509805061</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.8646000824888</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>439.1214116936061</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>439.1214116936061</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>439.1214116936061</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>701.8711869927348</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>532.9350040648279</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>382.8183646524922</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>382.8183646524922</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>701.8711869927348</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>701.8711869927348</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>701.8711869927348</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>701.8711869927348</v>
+        <v>718.2396502532528</v>
       </c>
       <c r="V10" t="n">
-        <v>701.8711869927348</v>
+        <v>718.2396502532528</v>
       </c>
       <c r="W10" t="n">
-        <v>701.8711869927348</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="X10" t="n">
-        <v>701.8711869927348</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.8711869927348</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5036,55 +5036,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1096.475226584133</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>927.5390436562312</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5194,19 +5194,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.123691414373</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5264,25 +5264,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,19 +5294,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.3578574653</v>
@@ -5343,34 +5343,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.9270045185177</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>376.9270045185177</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1430.949880691337</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1141.821241904895</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>887.1367536990085</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>597.7195836620479</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>597.7195836620479</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>376.9270045185177</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,43 +5498,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5558,7 +5558,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3128.721707800139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3436.0418410801</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>3765.904468744133</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5671,52 +5671,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799252</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.063975947108</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974656</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980052</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585735</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557891</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557891</v>
       </c>
       <c r="S19" t="n">
-        <v>1375.025382843599</v>
+        <v>1498.916270557891</v>
       </c>
       <c r="T19" t="n">
-        <v>1151.239967633105</v>
+        <v>1498.916270557891</v>
       </c>
       <c r="U19" t="n">
-        <v>862.1113288466635</v>
+        <v>1209.787631771449</v>
       </c>
       <c r="V19" t="n">
-        <v>607.4268406407766</v>
+        <v>955.1031435655626</v>
       </c>
       <c r="W19" t="n">
-        <v>318.0096706038159</v>
+        <v>665.6859735286021</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>560.9563154684962</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823768</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636253</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1663.687808515592</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1943.227873734289</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.25209348788</v>
+        <v>692.9901170420229</v>
       </c>
       <c r="C22" t="n">
-        <v>260.25209348788</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557892</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119718</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119718</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1164.055751909223</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609671</v>
+        <v>1164.055751909223</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550802</v>
+        <v>1164.055751909223</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181196</v>
+        <v>874.6385818722626</v>
       </c>
       <c r="X22" t="n">
-        <v>441.9005583181196</v>
+        <v>874.6385818722626</v>
       </c>
       <c r="Y22" t="n">
-        <v>441.9005583181196</v>
+        <v>874.6385818722626</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822457</v>
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,40 +5999,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6072,7 +6072,7 @@
         <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>420.322614832458</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336716</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,7 +6224,7 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514087</v>
@@ -6233,13 +6233,13 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6254,22 +6254,22 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571611</v>
+        <v>570.0299571250964</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636253</v>
+        <v>816.7950850315606</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311522</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6388,46 +6388,46 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799302</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947113</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974661</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980058</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.08282758574</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598088</v>
+        <v>1298.996260473449</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387593</v>
+        <v>1075.210845262955</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011511</v>
+        <v>786.0822064765127</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952642</v>
+        <v>786.0822064765127</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583034</v>
+        <v>496.6650364395521</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028589</v>
+        <v>268.6754855415348</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028589</v>
+        <v>268.6754855415348</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,22 +6449,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6485,28 +6485,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404654</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404654</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404654</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404654</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404654</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035279</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247848</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U31" t="n">
-        <v>701.7253661765922</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V31" t="n">
-        <v>447.0408779707052</v>
+        <v>616.0394035985448</v>
       </c>
       <c r="W31" t="n">
-        <v>447.0408779707052</v>
+        <v>616.0394035985448</v>
       </c>
       <c r="X31" t="n">
-        <v>447.0408779707052</v>
+        <v>616.0394035985448</v>
       </c>
       <c r="Y31" t="n">
-        <v>447.0408779707052</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="32">
@@ -6695,40 +6695,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823761</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>485.4047026089406</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341676</v>
+        <v>732.1698305154048</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>324.384017443268</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C34" t="n">
-        <v>155.4478345153611</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
         <v>779.0639759471194</v>
@@ -6883,25 +6883,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557903</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352016</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150552</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X34" t="n">
-        <v>726.8250614170379</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.0324822735078</v>
+        <v>244.9733843006357</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6932,7 +6932,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766205</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799231</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471057</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974653</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.48306298005</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585733</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557889</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557889</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557889</v>
+        <v>1478.265405320241</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1478.265405320241</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1189.136766533799</v>
       </c>
       <c r="V37" t="n">
-        <v>835.4163915387944</v>
+        <v>1189.136766533799</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018336</v>
+        <v>899.7195964968386</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038161</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>671.7300455988212</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610195</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003444</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.3049164052</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155924</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805507</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.82227838225</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514086</v>
@@ -7190,34 +7190,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014296</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256436</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766205</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>392.0201325405897</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C40" t="n">
-        <v>392.0201325405897</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405897</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581964</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028593</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.78763177146</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W40" t="n">
-        <v>665.685973528612</v>
+        <v>1159.094223674652</v>
       </c>
       <c r="X40" t="n">
-        <v>665.685973528612</v>
+        <v>931.1046727766346</v>
       </c>
       <c r="Y40" t="n">
-        <v>573.6685973708295</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550606</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003444</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823789</v>
@@ -7433,28 +7433,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014296</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231267</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141871</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465305</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121734</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.52631485162</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.06055659054</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614728</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766205</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>1141.200876391116</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632138</v>
+        <v>972.2646934632087</v>
       </c>
       <c r="D43" t="n">
-        <v>822.148054050878</v>
+        <v>822.1480540508729</v>
       </c>
       <c r="E43" t="n">
         <v>674.2349604684849</v>
@@ -7564,7 +7564,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241958</v>
@@ -7576,7 +7576,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7612,7 +7612,7 @@
         <v>1498.916270557903</v>
       </c>
       <c r="Y43" t="n">
-        <v>1322.84934122136</v>
+        <v>1322.849341221355</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514086</v>
@@ -7673,25 +7673,25 @@
         <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126483</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3606.045341414589</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C46" t="n">
-        <v>3606.045341414589</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D46" t="n">
-        <v>3606.045341414589</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E46" t="n">
-        <v>3606.045341414589</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380588</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.7234906252</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636329</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403512</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.54638743106</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436457</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.02113004214</v>
+        <v>1460.082827585751</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014296</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014296</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014296</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4598.929129698978</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>4344.244641493091</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>4054.827471456131</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>3826.837920558119</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y46" t="n">
-        <v>3606.045341414589</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>104.8749102765749</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627436</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928303</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814461</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720718</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776741</v>
+        <v>182.0340742867936</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119822</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>159.0121003135234</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776743</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720712</v>
       </c>
       <c r="K32" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>73.5320452466994</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445214</v>
@@ -10665,25 +10665,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>96.03744927814591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445214</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.7164198729847</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,25 +10902,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>96.03744927814591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445214</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.7164198729847</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>96.03744927814591</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.27839330891271</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>154.2608350904893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>75.26883114644255</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>122.0272939095324</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>37.96161527722941</v>
       </c>
       <c r="D22" t="n">
-        <v>133.6447836574634</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>77.06777566241252</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338523</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>10.08817004150089</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675363</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642824</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338626</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675363</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>26.45108050686684</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>193.7596208784262</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>178.9742982929222</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>90.96703739368785</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25123,13 +25123,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675363</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836034</v>
+        <v>177.4764533983179</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0576765518915</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675363</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>60.0635243259652</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>127.4874509558903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.27839330891754</v>
+        <v>44.2783933089126</v>
       </c>
     </row>
     <row r="44">
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26071,13 +26071,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338072</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>26.93116351641225</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109151</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109151</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109149</v>
+        <v>849676.7773109151</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>849676.7773109151</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109151</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849676.7773109148</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109154</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109154</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="G2" t="n">
         <v>547440.6836327919</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>547440.6836327917</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="M2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="I2" t="n">
-        <v>547440.6836327917</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>547440.6836327923</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="N2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327921</v>
-      </c>
       <c r="P2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327922</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.158488477562185e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230217</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230215</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029898</v>
+        <v>29303.54555230217</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029915</v>
+        <v>29303.5455523022</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029898</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.364790299</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029923</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871669</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871669</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275116.8168582234</v>
+        <v>-272588.4956947811</v>
       </c>
       <c r="C6" t="n">
-        <v>314851.062356321</v>
+        <v>317379.3835197631</v>
       </c>
       <c r="D6" t="n">
-        <v>314851.0623563208</v>
+        <v>317379.3835197632</v>
       </c>
       <c r="E6" t="n">
-        <v>-101045.0435831205</v>
+        <v>-99010.22434512265</v>
       </c>
       <c r="F6" t="n">
-        <v>424114.9928937763</v>
+        <v>426149.8121317733</v>
       </c>
       <c r="G6" t="n">
-        <v>424114.9928937763</v>
+        <v>426149.8121317732</v>
       </c>
       <c r="H6" t="n">
-        <v>424114.9928937763</v>
+        <v>426149.8121317726</v>
       </c>
       <c r="I6" t="n">
-        <v>424114.9928937759</v>
+        <v>426149.812131773</v>
       </c>
       <c r="J6" t="n">
-        <v>247691.7737011834</v>
+        <v>249726.5929391802</v>
       </c>
       <c r="K6" t="n">
-        <v>424114.9928937763</v>
+        <v>426149.8121317733</v>
       </c>
       <c r="L6" t="n">
-        <v>424114.9928937764</v>
+        <v>426149.8121317733</v>
       </c>
       <c r="M6" t="n">
-        <v>289313.9776599394</v>
+        <v>291348.7968979358</v>
       </c>
       <c r="N6" t="n">
-        <v>424114.9928937763</v>
+        <v>426149.8121317733</v>
       </c>
       <c r="O6" t="n">
-        <v>424114.9928937762</v>
+        <v>426149.8121317732</v>
       </c>
       <c r="P6" t="n">
-        <v>424114.9928937764</v>
+        <v>426149.8121317732</v>
       </c>
     </row>
   </sheetData>
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541005</v>
@@ -26790,13 +26790,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26814,13 +26814,13 @@
         <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253574</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>155.6756200314736</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>100.1879899763195</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27430,22 +27430,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>7.343764364169118</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>96.68503059263386</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>384.9050304306762</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>74.7442514401132</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>164.1090973330608</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.815558430159</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>39.33357018799722</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,10 +27910,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>120.6699727385954</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>276.4914336283277</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>4.901797486430345e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.12759545149386e-11</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.12759545149386e-11</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29430,28 +29430,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.04055604082135e-11</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29460,7 +29460,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-6.473054368378716e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29478,28 +29478,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29509,10 +29509,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-2.121955025484504e-12</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29569,16 +29569,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -30159,25 +30159,25 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.19283609802127e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.353742056384645e-11</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30223,10 +30223,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-3.762176777007849e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-1.448110596952731e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30624,7 +30624,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>5.090328158985358e-12</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.120294774753141e-12</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>4.619001477597825e-12</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -30918,7 +30918,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32707,16 +32707,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927188</v>
@@ -32725,19 +32725,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
         <v>0.2670576580354894</v>
@@ -32783,7 +32783,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32792,19 +32792,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32813,13 +32813,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32877,19 +32877,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336902</v>
@@ -32898,7 +32898,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>387.238612517683</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951457</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221098</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341691</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799172</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415061</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303332</v>
@@ -36200,10 +36200,10 @@
         <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504665</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091989</v>
+        <v>389.1274892183184</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209233</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997186353</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951474</v>
@@ -36376,10 +36376,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980131</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209233</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36525,16 +36525,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>309.5875389014627</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560244</v>
@@ -36686,10 +36686,10 @@
         <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209233</v>
@@ -36756,7 +36756,7 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799221</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789726</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336987</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504664</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209233</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415054</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109073</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>224.1074838346387</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415666</v>
@@ -37166,7 +37166,7 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>41.91017895490674</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>378.4011515192542</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,16 +37464,16 @@
         <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799151</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>41.91017895490674</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>378.4011515192542</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005179</v>
@@ -37871,10 +37871,10 @@
         <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>378.4011515192542</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209233</v>
@@ -38190,7 +38190,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118055</v>
       </c>
       <c r="Q46" t="n">
         <v>39.22569997187479</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2235490.128225231</v>
+        <v>2228473.113333518</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0900949779775</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>130.4588318996849</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>234.7283054736623</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>393.0316656401467</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>89.85217623098787</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>163.1063757616379</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>399.3976635617698</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>145.8215431037988</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>28.5687630676961</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>24.29718497126858</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>167.2579896075383</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>111.8652689647492</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>210.9685212521346</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>33.35146980186034</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.4898845065132</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>169.1477376595842</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>33.92423056204023</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717412</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>184.0823362885908</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>131.565293588938</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>24.01153903325445</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385016</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8385935972309</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>54.92969084765564</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>115.5269768002176</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>18.03006671577479</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.175505447095</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>825.2129885066831</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>466.9472898999326</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>466.9472898999326</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2334.166315984416</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2080.404530622508</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1580.775345511217</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1871.983983358263</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1871.983983358263</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1781.224209387568</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.9581501493108</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C7" t="n">
-        <v>533.9581501493108</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>383.841510736975</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W7" t="n">
-        <v>533.9581501493108</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X7" t="n">
-        <v>533.9581501493108</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.9581501493108</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.314837422907</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1215.352320482495</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>857.0866218757449</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>471.2983692775006</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748109</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487029</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1970.914677487029</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.7691122461817</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.4175770764215</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5041,22 +5041,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5074,13 +5074,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5123,19 +5123,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028587</v>
@@ -5199,16 +5199,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="14">
@@ -5269,22 +5269,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5299,7 +5299,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5311,7 +5311,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5320,7 +5320,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5445,7 +5445,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1474.373659475813</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1274.453649391366</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1050.668234180871</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>761.5395953944297</v>
       </c>
       <c r="V16" t="n">
-        <v>506.0596387883055</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="W16" t="n">
-        <v>506.0596387883055</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>506.0596387883055</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0596387883055</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5527,10 +5527,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899127</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028587</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V19" t="n">
-        <v>1186.001039296941</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W19" t="n">
-        <v>896.58386925998</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="X19" t="n">
-        <v>668.5943183619627</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,43 +5740,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1236.836466556557</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>3782.260917288848</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>3492.843747251887</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6074,22 +6074,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.72593422785</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V25" t="n">
-        <v>4317.041446021964</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>4027.624275985003</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>3799.634725086986</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>3578.842145943456</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,22 +6211,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1464.649371000286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1464.649371000286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1240.863955789792</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>951.73531700335</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>951.73531700335</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>662.3181469663895</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>434.3285960683721</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155906</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6460,13 +6460,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6548,19 +6548,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>1298.996260473455</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>1113.054506646595</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>892.2619275030652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6785,16 +6785,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6882,22 +6882,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>130.9054447954967</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164473</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
         <v>1722.015429253975</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1366.02203460948</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>1111.337546403593</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W40" t="n">
-        <v>821.9203763666327</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X40" t="n">
-        <v>593.9308254686154</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y40" t="n">
-        <v>593.9308254686154</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>868.4856756861158</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C43" t="n">
-        <v>699.5494927582089</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D43" t="n">
-        <v>549.4328533458731</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>401.51975976348</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>254.6298122655697</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557903</v>
+        <v>765.0418208473204</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557903</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X43" t="n">
-        <v>1270.926719659886</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.134140516356</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,16 +7666,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7742,7 +7742,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.9110074201016</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="C46" t="n">
-        <v>213.9110074201016</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7839,19 +7839,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201016</v>
+        <v>712.8170085027681</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360585</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>124.3400780863221</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627462</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>398.9629823660891</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>116.908739053196</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,10 +10196,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>253.7371603504736</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>197.1408923213411</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>85.6671674325242</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>84.87965371628968</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>140.2723743590788</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>14.74113413690259</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3581855871768</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61.34209567542406</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>52.3998233988051</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>76.04012184175255</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>41.62731910044633</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>154.6720588096394</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>194.5731143188403</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>10.65497486614666</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>231.3076615509217</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>33.08849621799476</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>207.6795886732624</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>849676.7773109151</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049992</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="F2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="F2" t="n">
-        <v>547440.683632792</v>
-      </c>
       <c r="G2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327923</v>
       </c>
       <c r="J2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="L2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.683632792</v>
       </c>
       <c r="M2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.683632792</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.683632792</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="F4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="F4" t="n">
-        <v>29303.54555230229</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26444,10 +26444,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26459,7 +26459,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272588.495694781</v>
+        <v>-272588.4956947812</v>
       </c>
       <c r="C6" t="n">
         <v>317379.3835197632</v>
       </c>
       <c r="D6" t="n">
-        <v>317379.3835197631</v>
+        <v>317379.383519763</v>
       </c>
       <c r="E6" t="n">
-        <v>-99010.22434512278</v>
+        <v>-99984.81560484489</v>
       </c>
       <c r="F6" t="n">
-        <v>426149.8121317731</v>
+        <v>425175.2208720515</v>
       </c>
       <c r="G6" t="n">
-        <v>426149.8121317732</v>
+        <v>425175.2208720511</v>
       </c>
       <c r="H6" t="n">
-        <v>426149.8121317732</v>
+        <v>425175.2208720512</v>
       </c>
       <c r="I6" t="n">
-        <v>426149.8121317733</v>
+        <v>425175.2208720517</v>
       </c>
       <c r="J6" t="n">
-        <v>249726.5929391802</v>
+        <v>248752.0016794587</v>
       </c>
       <c r="K6" t="n">
-        <v>426149.8121317732</v>
+        <v>425175.2208720513</v>
       </c>
       <c r="L6" t="n">
-        <v>426149.812131773</v>
+        <v>425175.2208720514</v>
       </c>
       <c r="M6" t="n">
-        <v>291348.796897936</v>
+        <v>290374.2056382144</v>
       </c>
       <c r="N6" t="n">
-        <v>426149.8121317734</v>
+        <v>425175.2208720513</v>
       </c>
       <c r="O6" t="n">
-        <v>426149.8121317731</v>
+        <v>425175.2208720513</v>
       </c>
       <c r="P6" t="n">
-        <v>426149.812131773</v>
+        <v>425175.2208720513</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170869</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>11.78595076373398</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>85.9894884579729</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>17.40933785016566</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>13.8443801015647</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>296.3857624250657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.59587156758265</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>123.4166225749531</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7.478382179941661</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>79.2135623542855</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>9.78020423268578e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178469</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095148</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>709.3873594165555</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36451,16 +36451,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>399.2724412943041</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37323,7 +37323,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37630,7 +37630,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>564.1615374009399</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>406.4618263286126</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2228473.113333518</v>
+        <v>2233412.37618255</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>393.0316656401467</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>295.9707132341636</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>73.31370764131945</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.52687838733165</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>78.03885866270376</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>169.827716759979</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>28.5687630676961</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3.347695664762908</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.29718497126858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>210.9685212521346</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>49.65580737697913</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>169.1477376595842</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>27.55584844405772</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>26.99319854866558</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.01153903325445</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="41">
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385016</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>54.92969084765564</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>18.03006671577479</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.56916835588</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>1349.56916835588</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1349.56916835588</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1349.56916835588</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,46 +4649,46 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>544.5191867458693</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511404</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4837,16 +4837,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y8" t="n">
         <v>1978.468598880909</v>
@@ -4889,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845924</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.0432218861031</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1327.373122315499</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V13" t="n">
-        <v>731.31772835508</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181194</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X13" t="n">
-        <v>413.0432218861031</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y13" t="n">
-        <v>413.0432218861031</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,22 +5290,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1474.373659475813</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1274.453649391366</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1050.668234180871</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>761.5395953944297</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>506.8551071885429</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>506.8551071885429</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X16" t="n">
-        <v>278.8655562905255</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>282.2470670630133</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805457</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,7 +5530,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899127</v>
@@ -5539,28 +5539,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.210845262961</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570741</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>531.1091870201135</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="20">
@@ -5740,16 +5740,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5767,16 +5767,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5986,55 +5986,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6074,22 +6074,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>896.5552164996849</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>727.619033571778</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>577.5023941594422</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1017.064856369034</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1017.064856369034</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>1078.203681329925</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,25 +6220,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>272.964375390212</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>272.964375390212</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>125.0512818078189</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6463,25 +6463,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1360.575309999864</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6885,22 +6885,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,34 +7159,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>820.5263570570736</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>531.109187020113</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>303.1196361220957</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1019.726309053207</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>765.0418208473204</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>475.6246508103599</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,16 +7627,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7645,13 +7645,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,37 +7660,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>731.0291971045608</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863221</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298197</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>116.908739053196</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10907,10 +10907,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>197.1408923213411</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>163.8991254338649</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>85.6671674325242</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>14.74113413690259</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>96.77815526959003</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>52.3998233988051</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>117.8651995788735</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>194.5543625097237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.5731143188403</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="41">
@@ -25803,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>231.3076615509217</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>207.6795886732624</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="F2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="G2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="I2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="K2" t="n">
         <v>547440.6836327917</v>
       </c>
-      <c r="H2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="K2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.6836327921</v>
-      </c>
       <c r="M2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327916</v>
       </c>
       <c r="N2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327915</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26435,7 +26435,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26459,7 +26459,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26478,25 +26478,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272588.4956947812</v>
+        <v>-272588.4956947813</v>
       </c>
       <c r="C6" t="n">
-        <v>317379.3835197632</v>
+        <v>317379.383519763</v>
       </c>
       <c r="D6" t="n">
         <v>317379.383519763</v>
       </c>
       <c r="E6" t="n">
-        <v>-99984.81560484489</v>
+        <v>-99107.6834710953</v>
       </c>
       <c r="F6" t="n">
-        <v>425175.2208720515</v>
+        <v>426052.353005801</v>
       </c>
       <c r="G6" t="n">
-        <v>425175.2208720511</v>
+        <v>426052.3530058009</v>
       </c>
       <c r="H6" t="n">
-        <v>425175.2208720512</v>
+        <v>426052.3530058008</v>
       </c>
       <c r="I6" t="n">
-        <v>425175.2208720517</v>
+        <v>426052.3530058008</v>
       </c>
       <c r="J6" t="n">
-        <v>248752.0016794587</v>
+        <v>249629.133813208</v>
       </c>
       <c r="K6" t="n">
-        <v>425175.2208720513</v>
+        <v>426052.3530058006</v>
       </c>
       <c r="L6" t="n">
-        <v>425175.2208720514</v>
+        <v>426052.353005801</v>
       </c>
       <c r="M6" t="n">
-        <v>290374.2056382144</v>
+        <v>291251.3377719633</v>
       </c>
       <c r="N6" t="n">
-        <v>425175.2208720513</v>
+        <v>426052.3530058008</v>
       </c>
       <c r="O6" t="n">
-        <v>425175.2208720513</v>
+        <v>426052.353005801</v>
       </c>
       <c r="P6" t="n">
-        <v>425175.2208720513</v>
+        <v>426052.3530058004</v>
       </c>
     </row>
   </sheetData>
@@ -26740,31 +26740,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13.8443801015647</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>73.76038744430542</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>75.3017653768929</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.59587156758265</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>308.1990799933498</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866331</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178469</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,22 +36126,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
         <v>59.82538970349766</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36451,16 +36451,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>399.2724412943041</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R38" t="n">
         <v>59.8253897034981</v>
@@ -37627,10 +37627,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,10 +37639,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
